--- a/extra/matrix_research.xlsx
+++ b/extra/matrix_research.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>dumb</t>
   </si>
@@ -2815,7 +2816,2850 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>matrix multiplication</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dumb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>9.3420000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6148E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6170999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7363000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3888E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7644000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7444999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3196700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.56711E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3494400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9283899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4969799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.1480199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2806199999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.55188E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7842699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5746700000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.68173E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1601799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11943860000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1137222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1312141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15211169999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16764109999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19292129999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1788671</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2138207</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2428893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26241019999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30012149999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29615150000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33794740000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.34378900000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41858250000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.41614380000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43492599999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48711359999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.49277840000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58653089999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60726159999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.61937419999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71362250000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69711719999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.72142229999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.84147570000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.87358369999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.3417136999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7835608999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1565915000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3423636999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9658644999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.6010456999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1789050999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.6140504</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.1847167000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.8863780999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.8671036</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78.534017399999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6332-4F91-B6D7-B6829C47F5BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dumb parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>4.3399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0620000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1378E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6712000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1202999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3487E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3575000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5360000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2240999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7998999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0919099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.30957E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5896799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6328100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9078899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4858999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6147799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9837900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4753399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7128700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5198000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8458199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2045999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5031399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.82963E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8965799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8233000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0790099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3544600000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9950600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.1219700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1004476</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.2128000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5877900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1096101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1294177</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1434279</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15274679999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18060979999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18082500000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19750499999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20229130000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1866526</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.19826450000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.2368391</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3202006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.39265600000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51381869999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62184530000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.70384679999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.84375710000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0452431</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2361721999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4592168999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8196952</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.1579084000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.7167265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6332-4F91-B6D7-B6829C47F5BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reordered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$F$2:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>9.0140000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5410000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.457E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5978999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1266999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0412000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3795000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.20839E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5212699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5153700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9209500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7209500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9087400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8658300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4137800000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8189299999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9744499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8298600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.103418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8452500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12697890000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13480700000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.164017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1634101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17263770000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18890670000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21345159999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25233050000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28757480000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32767230000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3631278</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32293290000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36714419999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3475143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38320910000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41025859999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53207789999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.4873576</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.59204900000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5392806</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.59653540000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.79468419999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.79610499999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.72808649999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.73907149999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78914890000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1999057</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4216329000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8581863999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3184018000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9999389999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.4912196999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3489636000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8686322000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.5258171999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.7446805000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.290632500000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52.971342700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6332-4F91-B6D7-B6829C47F5BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reordered parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$H$2:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>2.175E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7188999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7160000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2609999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2086E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6746E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7902000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5125E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5991999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0791999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4580000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7391999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.04499E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0810500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17997E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.24275E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.51278E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.73133E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.95654E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.28311E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5432400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8425599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2443599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8354300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0148999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.33476E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7844100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.54066E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1117499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4177200000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1082700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.9794600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.4509100000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0814800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5012600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1067623</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.14212150000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.120451</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12876879999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14418420000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1473342</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16928470000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16848560000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1768806</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20432900000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.20535329999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28031679999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36581200000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45879799999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.57167029999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68547559999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.84487100000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1138356</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1913558</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4919538999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6329553000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8539463999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.478516600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6332-4F91-B6D7-B6829C47F5BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strassen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$J$2:$J$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>2.1595E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.153E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39522E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3847999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3749300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.35248E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.32027E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34926E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1143569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1026828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3745899999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2548800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2527700000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1152618</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3564900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1232565</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1207983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2612200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2793399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2864600000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3617900000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65820469999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65034860000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65195340000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68558640000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.65678530000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66034349999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64978389999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6559895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6648773</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66059699999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66823460000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.65319369999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66782140000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64488440000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65792280000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64614740000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64711110000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67474599999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65611569999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65027429999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67857889999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.65428489999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64790440000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.64459370000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64801430000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5254171000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.5060354</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6028846999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.5775506000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5184730999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5445000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5082896999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5781834000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5557559999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.531288</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.046273999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.417389700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6332-4F91-B6D7-B6829C47F5BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strassen parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$L$2:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>2.4621999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2203000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.48133E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5871699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7555100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4917E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4894299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1075231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.129969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1021002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1019161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10618619999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10291939999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1049479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1015451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1018601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12646160000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1044553</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1028912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1055802</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78406549999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.73608320000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1151234999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74287190000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71699979999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74130799999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73649160000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7801979</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70909659999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74341619999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79338980000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.74415989999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71995390000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86354189999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.78588159999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68639110000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68950409999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.53063190000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.74353760000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56802050000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5043588</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55801869999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62313680000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60564150000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.64414629999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8534006000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7591366000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6793673</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7071765999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6817426000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7191062000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6879211999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7300122</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6915629999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7250200000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28.798579400000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26.148240099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6332-4F91-B6D7-B6829C47F5BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376403120"/>
+        <c:axId val="376404784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376403120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dimention</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376404784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376404784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376403120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3371,6 +6215,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3389,6 +6749,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50292</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3673,9 +7070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4916,4 +8311,2247 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>9.3420000000000005E-4</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>4.3399999999999998E-4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>9.0140000000000001E-4</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>2.175E-4</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>2.1595E-3</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>2.4621999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>1.6148E-3</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>7.0620000000000004E-4</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>2.7188999999999998E-3</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>2.153E-3</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>2.2203000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>2.6170999999999998E-3</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>1.1378E-3</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>2.457E-3</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>5.7160000000000002E-4</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>1.39522E-2</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <v>1.48133E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>3.7363000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>1.6712000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <v>3.5978999999999998E-3</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>8.2609999999999997E-4</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>1.3847999999999999E-2</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="L5">
+        <v>1.49011E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>5.3888E-3</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>2.1202999999999999E-3</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>5.1266999999999997E-3</v>
+      </c>
+      <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>1.2086E-3</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>1.3749300000000001E-2</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>1.5871699999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>7.7644000000000003E-3</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>3.3487E-3</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>7.0412000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>1.6746E-3</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1.35248E-2</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>3.7555100000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>9.7444999999999997E-3</v>
+      </c>
+      <c r="C8">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>4.3575000000000003E-3</v>
+      </c>
+      <c r="E8">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>9.3795000000000007E-3</v>
+      </c>
+      <c r="G8">
+        <v>110</v>
+      </c>
+      <c r="H8">
+        <v>2.7902000000000001E-3</v>
+      </c>
+      <c r="I8">
+        <v>110</v>
+      </c>
+      <c r="J8">
+        <v>2.32027E-2</v>
+      </c>
+      <c r="K8">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>1.4917E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>2.3196700000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>5.5360000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>1.20839E-2</v>
+      </c>
+      <c r="G9">
+        <v>120</v>
+      </c>
+      <c r="H9">
+        <v>3.5125E-3</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+      <c r="J9">
+        <v>1.34926E-2</v>
+      </c>
+      <c r="K9">
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <v>1.4894299999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>1.56711E-2</v>
+      </c>
+      <c r="C10">
+        <v>130</v>
+      </c>
+      <c r="D10">
+        <v>7.2240999999999998E-3</v>
+      </c>
+      <c r="E10">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>1.5212699999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>130</v>
+      </c>
+      <c r="H10">
+        <v>3.5991999999999999E-3</v>
+      </c>
+      <c r="I10">
+        <v>130</v>
+      </c>
+      <c r="J10">
+        <v>0.1143569</v>
+      </c>
+      <c r="K10">
+        <v>130</v>
+      </c>
+      <c r="L10">
+        <v>0.1075231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>3.3494400000000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>8.7998999999999994E-3</v>
+      </c>
+      <c r="E11">
+        <v>140</v>
+      </c>
+      <c r="F11">
+        <v>3.5153700000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>5.0791999999999999E-3</v>
+      </c>
+      <c r="I11">
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <v>0.1026828</v>
+      </c>
+      <c r="K11">
+        <v>140</v>
+      </c>
+      <c r="L11">
+        <v>0.129969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>3.9283899999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>1.0919099999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>3.9209500000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>150</v>
+      </c>
+      <c r="H12">
+        <v>5.4580000000000002E-3</v>
+      </c>
+      <c r="I12">
+        <v>150</v>
+      </c>
+      <c r="J12">
+        <v>9.3745899999999993E-2</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="L12">
+        <v>0.1021002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>160</v>
+      </c>
+      <c r="B13">
+        <v>4.4969799999999997E-2</v>
+      </c>
+      <c r="C13">
+        <v>160</v>
+      </c>
+      <c r="D13">
+        <v>1.30957E-2</v>
+      </c>
+      <c r="E13">
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <v>4.7209500000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>160</v>
+      </c>
+      <c r="H13">
+        <v>6.7391999999999999E-3</v>
+      </c>
+      <c r="I13">
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <v>9.2548800000000001E-2</v>
+      </c>
+      <c r="K13">
+        <v>160</v>
+      </c>
+      <c r="L13">
+        <v>0.1019161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>170</v>
+      </c>
+      <c r="B14">
+        <v>6.1480199999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>170</v>
+      </c>
+      <c r="D14">
+        <v>1.5896799999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>170</v>
+      </c>
+      <c r="F14">
+        <v>4.9087400000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>170</v>
+      </c>
+      <c r="H14">
+        <v>1.04499E-2</v>
+      </c>
+      <c r="I14">
+        <v>170</v>
+      </c>
+      <c r="J14">
+        <v>9.2527700000000004E-2</v>
+      </c>
+      <c r="K14">
+        <v>170</v>
+      </c>
+      <c r="L14">
+        <v>0.10618619999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>180</v>
+      </c>
+      <c r="B15">
+        <v>5.2806199999999998E-2</v>
+      </c>
+      <c r="C15">
+        <v>180</v>
+      </c>
+      <c r="D15">
+        <v>1.6328100000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>180</v>
+      </c>
+      <c r="F15">
+        <v>4.8658300000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>180</v>
+      </c>
+      <c r="H15">
+        <v>1.0810500000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>180</v>
+      </c>
+      <c r="J15">
+        <v>0.1152618</v>
+      </c>
+      <c r="K15">
+        <v>180</v>
+      </c>
+      <c r="L15">
+        <v>0.10291939999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>190</v>
+      </c>
+      <c r="B16">
+        <v>5.55188E-2</v>
+      </c>
+      <c r="C16">
+        <v>190</v>
+      </c>
+      <c r="D16">
+        <v>1.9078899999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>190</v>
+      </c>
+      <c r="F16">
+        <v>7.4137800000000004E-2</v>
+      </c>
+      <c r="G16">
+        <v>190</v>
+      </c>
+      <c r="H16">
+        <v>1.17997E-2</v>
+      </c>
+      <c r="I16">
+        <v>190</v>
+      </c>
+      <c r="J16">
+        <v>9.3564900000000006E-2</v>
+      </c>
+      <c r="K16">
+        <v>190</v>
+      </c>
+      <c r="L16">
+        <v>0.1049479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>5.7842699999999997E-2</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>2.4858999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>6.8189299999999994E-2</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>2.24275E-2</v>
+      </c>
+      <c r="I17">
+        <v>200</v>
+      </c>
+      <c r="J17">
+        <v>0.1232565</v>
+      </c>
+      <c r="K17">
+        <v>200</v>
+      </c>
+      <c r="L17">
+        <v>0.1015451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>210</v>
+      </c>
+      <c r="B18">
+        <v>6.5746700000000005E-2</v>
+      </c>
+      <c r="C18">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>2.6147799999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>210</v>
+      </c>
+      <c r="F18">
+        <v>5.9744499999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>210</v>
+      </c>
+      <c r="H18">
+        <v>1.51278E-2</v>
+      </c>
+      <c r="I18">
+        <v>210</v>
+      </c>
+      <c r="J18">
+        <v>0.1207983</v>
+      </c>
+      <c r="K18">
+        <v>210</v>
+      </c>
+      <c r="L18">
+        <v>0.1018601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>220</v>
+      </c>
+      <c r="B19">
+        <v>8.68173E-2</v>
+      </c>
+      <c r="C19">
+        <v>220</v>
+      </c>
+      <c r="D19">
+        <v>2.9837900000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>220</v>
+      </c>
+      <c r="F19">
+        <v>6.8298600000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>220</v>
+      </c>
+      <c r="H19">
+        <v>1.73133E-2</v>
+      </c>
+      <c r="I19">
+        <v>220</v>
+      </c>
+      <c r="J19">
+        <v>9.2612200000000006E-2</v>
+      </c>
+      <c r="K19">
+        <v>220</v>
+      </c>
+      <c r="L19">
+        <v>0.12646160000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>230</v>
+      </c>
+      <c r="B20">
+        <v>9.1601799999999997E-2</v>
+      </c>
+      <c r="C20">
+        <v>230</v>
+      </c>
+      <c r="D20">
+        <v>3.4753399999999997E-2</v>
+      </c>
+      <c r="E20">
+        <v>230</v>
+      </c>
+      <c r="F20">
+        <v>0.103418</v>
+      </c>
+      <c r="G20">
+        <v>230</v>
+      </c>
+      <c r="H20">
+        <v>1.95654E-2</v>
+      </c>
+      <c r="I20">
+        <v>230</v>
+      </c>
+      <c r="J20">
+        <v>9.2793399999999998E-2</v>
+      </c>
+      <c r="K20">
+        <v>230</v>
+      </c>
+      <c r="L20">
+        <v>0.1044553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>0.11943860000000001</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+      <c r="D21">
+        <v>3.7128700000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>240</v>
+      </c>
+      <c r="F21">
+        <v>8.8452500000000003E-2</v>
+      </c>
+      <c r="G21">
+        <v>240</v>
+      </c>
+      <c r="H21">
+        <v>2.28311E-2</v>
+      </c>
+      <c r="I21">
+        <v>240</v>
+      </c>
+      <c r="J21">
+        <v>9.2864600000000005E-2</v>
+      </c>
+      <c r="K21">
+        <v>240</v>
+      </c>
+      <c r="L21">
+        <v>0.1028912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>250</v>
+      </c>
+      <c r="B22">
+        <v>0.1137222</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>2.5198000000000002E-2</v>
+      </c>
+      <c r="E22">
+        <v>250</v>
+      </c>
+      <c r="F22">
+        <v>0.12697890000000001</v>
+      </c>
+      <c r="G22">
+        <v>250</v>
+      </c>
+      <c r="H22">
+        <v>2.5432400000000001E-2</v>
+      </c>
+      <c r="I22">
+        <v>250</v>
+      </c>
+      <c r="J22">
+        <v>9.3617900000000004E-2</v>
+      </c>
+      <c r="K22">
+        <v>250</v>
+      </c>
+      <c r="L22">
+        <v>0.1055802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>260</v>
+      </c>
+      <c r="B23">
+        <v>0.1312141</v>
+      </c>
+      <c r="C23">
+        <v>260</v>
+      </c>
+      <c r="D23">
+        <v>2.8458199999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>260</v>
+      </c>
+      <c r="F23">
+        <v>0.13480700000000001</v>
+      </c>
+      <c r="G23">
+        <v>260</v>
+      </c>
+      <c r="H23">
+        <v>2.8425599999999999E-2</v>
+      </c>
+      <c r="I23">
+        <v>260</v>
+      </c>
+      <c r="J23">
+        <v>0.65820469999999998</v>
+      </c>
+      <c r="K23">
+        <v>260</v>
+      </c>
+      <c r="L23">
+        <v>0.78406549999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>270</v>
+      </c>
+      <c r="B24">
+        <v>0.15211169999999999</v>
+      </c>
+      <c r="C24">
+        <v>270</v>
+      </c>
+      <c r="D24">
+        <v>3.2045999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>270</v>
+      </c>
+      <c r="F24">
+        <v>0.164017</v>
+      </c>
+      <c r="G24">
+        <v>270</v>
+      </c>
+      <c r="H24">
+        <v>4.2443599999999998E-2</v>
+      </c>
+      <c r="I24">
+        <v>270</v>
+      </c>
+      <c r="J24">
+        <v>0.65034860000000005</v>
+      </c>
+      <c r="K24">
+        <v>270</v>
+      </c>
+      <c r="L24">
+        <v>0.73608320000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>280</v>
+      </c>
+      <c r="B25">
+        <v>0.16764109999999999</v>
+      </c>
+      <c r="C25">
+        <v>280</v>
+      </c>
+      <c r="D25">
+        <v>3.5031399999999997E-2</v>
+      </c>
+      <c r="E25">
+        <v>280</v>
+      </c>
+      <c r="F25">
+        <v>0.1634101</v>
+      </c>
+      <c r="G25">
+        <v>280</v>
+      </c>
+      <c r="H25">
+        <v>3.8354300000000001E-2</v>
+      </c>
+      <c r="I25">
+        <v>280</v>
+      </c>
+      <c r="J25">
+        <v>0.65195340000000002</v>
+      </c>
+      <c r="K25">
+        <v>280</v>
+      </c>
+      <c r="L25">
+        <v>1.1151234999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>290</v>
+      </c>
+      <c r="B26">
+        <v>0.19292129999999999</v>
+      </c>
+      <c r="C26">
+        <v>290</v>
+      </c>
+      <c r="D26">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>290</v>
+      </c>
+      <c r="F26">
+        <v>0.17263770000000001</v>
+      </c>
+      <c r="G26">
+        <v>290</v>
+      </c>
+      <c r="H26">
+        <v>4.0148999999999997E-2</v>
+      </c>
+      <c r="I26">
+        <v>290</v>
+      </c>
+      <c r="J26">
+        <v>0.68558640000000004</v>
+      </c>
+      <c r="K26">
+        <v>290</v>
+      </c>
+      <c r="L26">
+        <v>0.74287190000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>0.1788671</v>
+      </c>
+      <c r="C27">
+        <v>300</v>
+      </c>
+      <c r="D27">
+        <v>4.82963E-2</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+      <c r="F27">
+        <v>0.18890670000000001</v>
+      </c>
+      <c r="G27">
+        <v>300</v>
+      </c>
+      <c r="H27">
+        <v>4.33476E-2</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+      <c r="J27">
+        <v>0.65678530000000002</v>
+      </c>
+      <c r="K27">
+        <v>300</v>
+      </c>
+      <c r="L27">
+        <v>0.71699979999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>310</v>
+      </c>
+      <c r="B28">
+        <v>0.2138207</v>
+      </c>
+      <c r="C28">
+        <v>310</v>
+      </c>
+      <c r="D28">
+        <v>4.8965799999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>310</v>
+      </c>
+      <c r="F28">
+        <v>0.21345159999999999</v>
+      </c>
+      <c r="G28">
+        <v>310</v>
+      </c>
+      <c r="H28">
+        <v>4.7844100000000001E-2</v>
+      </c>
+      <c r="I28">
+        <v>310</v>
+      </c>
+      <c r="J28">
+        <v>0.66034349999999997</v>
+      </c>
+      <c r="K28">
+        <v>310</v>
+      </c>
+      <c r="L28">
+        <v>0.74130799999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>320</v>
+      </c>
+      <c r="B29">
+        <v>0.2428893</v>
+      </c>
+      <c r="C29">
+        <v>320</v>
+      </c>
+      <c r="D29">
+        <v>6.8233000000000002E-2</v>
+      </c>
+      <c r="E29">
+        <v>320</v>
+      </c>
+      <c r="F29">
+        <v>0.25233050000000001</v>
+      </c>
+      <c r="G29">
+        <v>320</v>
+      </c>
+      <c r="H29">
+        <v>5.54066E-2</v>
+      </c>
+      <c r="I29">
+        <v>320</v>
+      </c>
+      <c r="J29">
+        <v>0.64978389999999997</v>
+      </c>
+      <c r="K29">
+        <v>320</v>
+      </c>
+      <c r="L29">
+        <v>0.73649160000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>330</v>
+      </c>
+      <c r="B30">
+        <v>0.26241019999999998</v>
+      </c>
+      <c r="C30">
+        <v>330</v>
+      </c>
+      <c r="D30">
+        <v>7.0790099999999995E-2</v>
+      </c>
+      <c r="E30">
+        <v>330</v>
+      </c>
+      <c r="F30">
+        <v>0.28757480000000002</v>
+      </c>
+      <c r="G30">
+        <v>330</v>
+      </c>
+      <c r="H30">
+        <v>8.1117499999999995E-2</v>
+      </c>
+      <c r="I30">
+        <v>330</v>
+      </c>
+      <c r="J30">
+        <v>0.6559895</v>
+      </c>
+      <c r="K30">
+        <v>330</v>
+      </c>
+      <c r="L30">
+        <v>0.7801979</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>340</v>
+      </c>
+      <c r="B31">
+        <v>0.30012149999999999</v>
+      </c>
+      <c r="C31">
+        <v>340</v>
+      </c>
+      <c r="D31">
+        <v>6.3544600000000007E-2</v>
+      </c>
+      <c r="E31">
+        <v>340</v>
+      </c>
+      <c r="F31">
+        <v>0.32767230000000003</v>
+      </c>
+      <c r="G31">
+        <v>340</v>
+      </c>
+      <c r="H31">
+        <v>6.4177200000000004E-2</v>
+      </c>
+      <c r="I31">
+        <v>340</v>
+      </c>
+      <c r="J31">
+        <v>0.6648773</v>
+      </c>
+      <c r="K31">
+        <v>340</v>
+      </c>
+      <c r="L31">
+        <v>0.70909659999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>350</v>
+      </c>
+      <c r="B32">
+        <v>0.29615150000000001</v>
+      </c>
+      <c r="C32">
+        <v>350</v>
+      </c>
+      <c r="D32">
+        <v>6.9950600000000002E-2</v>
+      </c>
+      <c r="E32">
+        <v>350</v>
+      </c>
+      <c r="F32">
+        <v>0.3631278</v>
+      </c>
+      <c r="G32">
+        <v>350</v>
+      </c>
+      <c r="H32">
+        <v>9.1082700000000003E-2</v>
+      </c>
+      <c r="I32">
+        <v>350</v>
+      </c>
+      <c r="J32">
+        <v>0.66059699999999999</v>
+      </c>
+      <c r="K32">
+        <v>350</v>
+      </c>
+      <c r="L32">
+        <v>0.74341619999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>360</v>
+      </c>
+      <c r="B33">
+        <v>0.33794740000000001</v>
+      </c>
+      <c r="C33">
+        <v>360</v>
+      </c>
+      <c r="D33">
+        <v>9.1219700000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>360</v>
+      </c>
+      <c r="F33">
+        <v>0.32293290000000002</v>
+      </c>
+      <c r="G33">
+        <v>360</v>
+      </c>
+      <c r="H33">
+        <v>8.9794600000000002E-2</v>
+      </c>
+      <c r="I33">
+        <v>360</v>
+      </c>
+      <c r="J33">
+        <v>0.66823460000000001</v>
+      </c>
+      <c r="K33">
+        <v>360</v>
+      </c>
+      <c r="L33">
+        <v>0.79338980000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>370</v>
+      </c>
+      <c r="B34">
+        <v>0.34378900000000001</v>
+      </c>
+      <c r="C34">
+        <v>370</v>
+      </c>
+      <c r="D34">
+        <v>0.1004476</v>
+      </c>
+      <c r="E34">
+        <v>370</v>
+      </c>
+      <c r="F34">
+        <v>0.36714419999999998</v>
+      </c>
+      <c r="G34">
+        <v>370</v>
+      </c>
+      <c r="H34">
+        <v>8.4509100000000004E-2</v>
+      </c>
+      <c r="I34">
+        <v>370</v>
+      </c>
+      <c r="J34">
+        <v>0.65319369999999999</v>
+      </c>
+      <c r="K34">
+        <v>370</v>
+      </c>
+      <c r="L34">
+        <v>0.74415989999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>380</v>
+      </c>
+      <c r="B35">
+        <v>0.41858250000000002</v>
+      </c>
+      <c r="C35">
+        <v>380</v>
+      </c>
+      <c r="D35">
+        <v>9.2128000000000002E-2</v>
+      </c>
+      <c r="E35">
+        <v>380</v>
+      </c>
+      <c r="F35">
+        <v>0.3475143</v>
+      </c>
+      <c r="G35">
+        <v>380</v>
+      </c>
+      <c r="H35">
+        <v>9.0814800000000001E-2</v>
+      </c>
+      <c r="I35">
+        <v>380</v>
+      </c>
+      <c r="J35">
+        <v>0.66782140000000001</v>
+      </c>
+      <c r="K35">
+        <v>380</v>
+      </c>
+      <c r="L35">
+        <v>0.71995390000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>390</v>
+      </c>
+      <c r="B36">
+        <v>0.41614380000000001</v>
+      </c>
+      <c r="C36">
+        <v>390</v>
+      </c>
+      <c r="D36">
+        <v>9.5877900000000002E-2</v>
+      </c>
+      <c r="E36">
+        <v>390</v>
+      </c>
+      <c r="F36">
+        <v>0.38320910000000002</v>
+      </c>
+      <c r="G36">
+        <v>390</v>
+      </c>
+      <c r="H36">
+        <v>9.5012600000000003E-2</v>
+      </c>
+      <c r="I36">
+        <v>390</v>
+      </c>
+      <c r="J36">
+        <v>0.64488440000000002</v>
+      </c>
+      <c r="K36">
+        <v>390</v>
+      </c>
+      <c r="L36">
+        <v>0.86354189999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>400</v>
+      </c>
+      <c r="B37">
+        <v>0.43492599999999998</v>
+      </c>
+      <c r="C37">
+        <v>400</v>
+      </c>
+      <c r="D37">
+        <v>0.1096101</v>
+      </c>
+      <c r="E37">
+        <v>400</v>
+      </c>
+      <c r="F37">
+        <v>0.41025859999999997</v>
+      </c>
+      <c r="G37">
+        <v>400</v>
+      </c>
+      <c r="H37">
+        <v>0.1067623</v>
+      </c>
+      <c r="I37">
+        <v>400</v>
+      </c>
+      <c r="J37">
+        <v>0.65792280000000003</v>
+      </c>
+      <c r="K37">
+        <v>400</v>
+      </c>
+      <c r="L37">
+        <v>0.78588159999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>410</v>
+      </c>
+      <c r="B38">
+        <v>0.48711359999999998</v>
+      </c>
+      <c r="C38">
+        <v>410</v>
+      </c>
+      <c r="D38">
+        <v>0.1294177</v>
+      </c>
+      <c r="E38">
+        <v>410</v>
+      </c>
+      <c r="F38">
+        <v>0.53207789999999999</v>
+      </c>
+      <c r="G38">
+        <v>410</v>
+      </c>
+      <c r="H38">
+        <v>0.14212150000000001</v>
+      </c>
+      <c r="I38">
+        <v>410</v>
+      </c>
+      <c r="J38">
+        <v>0.64614740000000004</v>
+      </c>
+      <c r="K38">
+        <v>410</v>
+      </c>
+      <c r="L38">
+        <v>0.68639110000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>420</v>
+      </c>
+      <c r="B39">
+        <v>0.49277840000000001</v>
+      </c>
+      <c r="C39">
+        <v>420</v>
+      </c>
+      <c r="D39">
+        <v>0.1434279</v>
+      </c>
+      <c r="E39">
+        <v>420</v>
+      </c>
+      <c r="F39">
+        <v>0.4873576</v>
+      </c>
+      <c r="G39">
+        <v>420</v>
+      </c>
+      <c r="H39">
+        <v>0.120451</v>
+      </c>
+      <c r="I39">
+        <v>420</v>
+      </c>
+      <c r="J39">
+        <v>0.64711110000000005</v>
+      </c>
+      <c r="K39">
+        <v>420</v>
+      </c>
+      <c r="L39">
+        <v>0.68950409999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>430</v>
+      </c>
+      <c r="B40">
+        <v>0.58653089999999997</v>
+      </c>
+      <c r="C40">
+        <v>430</v>
+      </c>
+      <c r="D40">
+        <v>0.15274679999999999</v>
+      </c>
+      <c r="E40">
+        <v>430</v>
+      </c>
+      <c r="F40">
+        <v>0.59204900000000005</v>
+      </c>
+      <c r="G40">
+        <v>430</v>
+      </c>
+      <c r="H40">
+        <v>0.12876879999999999</v>
+      </c>
+      <c r="I40">
+        <v>430</v>
+      </c>
+      <c r="J40">
+        <v>0.67474599999999996</v>
+      </c>
+      <c r="K40">
+        <v>430</v>
+      </c>
+      <c r="L40">
+        <v>0.53063190000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>440</v>
+      </c>
+      <c r="B41">
+        <v>0.60726159999999996</v>
+      </c>
+      <c r="C41">
+        <v>440</v>
+      </c>
+      <c r="D41">
+        <v>0.18060979999999999</v>
+      </c>
+      <c r="E41">
+        <v>440</v>
+      </c>
+      <c r="F41">
+        <v>0.5392806</v>
+      </c>
+      <c r="G41">
+        <v>440</v>
+      </c>
+      <c r="H41">
+        <v>0.14418420000000001</v>
+      </c>
+      <c r="I41">
+        <v>440</v>
+      </c>
+      <c r="J41">
+        <v>0.65611569999999997</v>
+      </c>
+      <c r="K41">
+        <v>440</v>
+      </c>
+      <c r="L41">
+        <v>0.74353760000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>450</v>
+      </c>
+      <c r="B42">
+        <v>0.61937419999999999</v>
+      </c>
+      <c r="C42">
+        <v>450</v>
+      </c>
+      <c r="D42">
+        <v>0.18082500000000001</v>
+      </c>
+      <c r="E42">
+        <v>450</v>
+      </c>
+      <c r="F42">
+        <v>0.59653540000000005</v>
+      </c>
+      <c r="G42">
+        <v>450</v>
+      </c>
+      <c r="H42">
+        <v>0.1473342</v>
+      </c>
+      <c r="I42">
+        <v>450</v>
+      </c>
+      <c r="J42">
+        <v>0.65027429999999997</v>
+      </c>
+      <c r="K42">
+        <v>450</v>
+      </c>
+      <c r="L42">
+        <v>0.56802050000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>460</v>
+      </c>
+      <c r="B43">
+        <v>0.71362250000000005</v>
+      </c>
+      <c r="C43">
+        <v>460</v>
+      </c>
+      <c r="D43">
+        <v>0.19750499999999999</v>
+      </c>
+      <c r="E43">
+        <v>460</v>
+      </c>
+      <c r="F43">
+        <v>0.79468419999999995</v>
+      </c>
+      <c r="G43">
+        <v>460</v>
+      </c>
+      <c r="H43">
+        <v>0.16928470000000001</v>
+      </c>
+      <c r="I43">
+        <v>460</v>
+      </c>
+      <c r="J43">
+        <v>0.67857889999999998</v>
+      </c>
+      <c r="K43">
+        <v>460</v>
+      </c>
+      <c r="L43">
+        <v>0.5043588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>470</v>
+      </c>
+      <c r="B44">
+        <v>0.69711719999999999</v>
+      </c>
+      <c r="C44">
+        <v>470</v>
+      </c>
+      <c r="D44">
+        <v>0.20229130000000001</v>
+      </c>
+      <c r="E44">
+        <v>470</v>
+      </c>
+      <c r="F44">
+        <v>0.79610499999999995</v>
+      </c>
+      <c r="G44">
+        <v>470</v>
+      </c>
+      <c r="H44">
+        <v>0.16848560000000001</v>
+      </c>
+      <c r="I44">
+        <v>470</v>
+      </c>
+      <c r="J44">
+        <v>0.65428489999999995</v>
+      </c>
+      <c r="K44">
+        <v>470</v>
+      </c>
+      <c r="L44">
+        <v>0.55801869999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>480</v>
+      </c>
+      <c r="B45">
+        <v>0.72142229999999996</v>
+      </c>
+      <c r="C45">
+        <v>480</v>
+      </c>
+      <c r="D45">
+        <v>0.1866526</v>
+      </c>
+      <c r="E45">
+        <v>480</v>
+      </c>
+      <c r="F45">
+        <v>0.72808649999999997</v>
+      </c>
+      <c r="G45">
+        <v>480</v>
+      </c>
+      <c r="H45">
+        <v>0.1768806</v>
+      </c>
+      <c r="I45">
+        <v>480</v>
+      </c>
+      <c r="J45">
+        <v>0.64790440000000005</v>
+      </c>
+      <c r="K45">
+        <v>480</v>
+      </c>
+      <c r="L45">
+        <v>0.62313680000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>490</v>
+      </c>
+      <c r="B46">
+        <v>0.84147570000000005</v>
+      </c>
+      <c r="C46">
+        <v>490</v>
+      </c>
+      <c r="D46">
+        <v>0.19826450000000001</v>
+      </c>
+      <c r="E46">
+        <v>490</v>
+      </c>
+      <c r="F46">
+        <v>0.73907149999999999</v>
+      </c>
+      <c r="G46">
+        <v>490</v>
+      </c>
+      <c r="H46">
+        <v>0.20432900000000001</v>
+      </c>
+      <c r="I46">
+        <v>490</v>
+      </c>
+      <c r="J46">
+        <v>0.64459370000000005</v>
+      </c>
+      <c r="K46">
+        <v>490</v>
+      </c>
+      <c r="L46">
+        <v>0.60564150000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>500</v>
+      </c>
+      <c r="B47">
+        <v>0.87358369999999996</v>
+      </c>
+      <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="D47">
+        <v>0.2368391</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>0.78914890000000004</v>
+      </c>
+      <c r="G47">
+        <v>500</v>
+      </c>
+      <c r="H47">
+        <v>0.20535329999999999</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+      <c r="J47">
+        <v>0.64801430000000004</v>
+      </c>
+      <c r="K47">
+        <v>500</v>
+      </c>
+      <c r="L47">
+        <v>0.64414629999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>550</v>
+      </c>
+      <c r="B48">
+        <v>1.3417136999999999</v>
+      </c>
+      <c r="C48">
+        <v>550</v>
+      </c>
+      <c r="D48">
+        <v>0.3202006</v>
+      </c>
+      <c r="E48">
+        <v>550</v>
+      </c>
+      <c r="F48">
+        <v>1.1999057</v>
+      </c>
+      <c r="G48">
+        <v>550</v>
+      </c>
+      <c r="H48">
+        <v>0.28031679999999998</v>
+      </c>
+      <c r="I48">
+        <v>550</v>
+      </c>
+      <c r="J48">
+        <v>4.5254171000000003</v>
+      </c>
+      <c r="K48">
+        <v>550</v>
+      </c>
+      <c r="L48">
+        <v>3.8534006000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>600</v>
+      </c>
+      <c r="B49">
+        <v>1.7835608999999999</v>
+      </c>
+      <c r="C49">
+        <v>600</v>
+      </c>
+      <c r="D49">
+        <v>0.39265600000000001</v>
+      </c>
+      <c r="E49">
+        <v>600</v>
+      </c>
+      <c r="F49">
+        <v>1.4216329000000001</v>
+      </c>
+      <c r="G49">
+        <v>600</v>
+      </c>
+      <c r="H49">
+        <v>0.36581200000000003</v>
+      </c>
+      <c r="I49">
+        <v>600</v>
+      </c>
+      <c r="J49">
+        <v>4.5060354</v>
+      </c>
+      <c r="K49">
+        <v>600</v>
+      </c>
+      <c r="L49">
+        <v>3.7591366000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>2.1565915000000002</v>
+      </c>
+      <c r="C50">
+        <v>650</v>
+      </c>
+      <c r="D50">
+        <v>0.51381869999999996</v>
+      </c>
+      <c r="E50">
+        <v>650</v>
+      </c>
+      <c r="F50">
+        <v>1.8581863999999999</v>
+      </c>
+      <c r="G50">
+        <v>650</v>
+      </c>
+      <c r="H50">
+        <v>0.45879799999999998</v>
+      </c>
+      <c r="I50">
+        <v>650</v>
+      </c>
+      <c r="J50">
+        <v>4.6028846999999997</v>
+      </c>
+      <c r="K50">
+        <v>650</v>
+      </c>
+      <c r="L50">
+        <v>3.6793673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>700</v>
+      </c>
+      <c r="B51">
+        <v>2.3423636999999999</v>
+      </c>
+      <c r="C51">
+        <v>700</v>
+      </c>
+      <c r="D51">
+        <v>0.62184530000000005</v>
+      </c>
+      <c r="E51">
+        <v>700</v>
+      </c>
+      <c r="F51">
+        <v>2.3184018000000002</v>
+      </c>
+      <c r="G51">
+        <v>700</v>
+      </c>
+      <c r="H51">
+        <v>0.57167029999999996</v>
+      </c>
+      <c r="I51">
+        <v>700</v>
+      </c>
+      <c r="J51">
+        <v>4.5775506000000004</v>
+      </c>
+      <c r="K51">
+        <v>700</v>
+      </c>
+      <c r="L51">
+        <v>3.7071765999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>750</v>
+      </c>
+      <c r="B52">
+        <v>2.9658644999999999</v>
+      </c>
+      <c r="C52">
+        <v>750</v>
+      </c>
+      <c r="D52">
+        <v>0.70384679999999999</v>
+      </c>
+      <c r="E52">
+        <v>750</v>
+      </c>
+      <c r="F52">
+        <v>2.9999389999999999</v>
+      </c>
+      <c r="G52">
+        <v>750</v>
+      </c>
+      <c r="H52">
+        <v>0.68547559999999996</v>
+      </c>
+      <c r="I52">
+        <v>750</v>
+      </c>
+      <c r="J52">
+        <v>4.5184730999999996</v>
+      </c>
+      <c r="K52">
+        <v>750</v>
+      </c>
+      <c r="L52">
+        <v>3.6817426000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>800</v>
+      </c>
+      <c r="B53">
+        <v>3.6010456999999998</v>
+      </c>
+      <c r="C53">
+        <v>800</v>
+      </c>
+      <c r="D53">
+        <v>0.84375710000000004</v>
+      </c>
+      <c r="E53">
+        <v>800</v>
+      </c>
+      <c r="F53">
+        <v>3.4912196999999998</v>
+      </c>
+      <c r="G53">
+        <v>800</v>
+      </c>
+      <c r="H53">
+        <v>0.84487100000000004</v>
+      </c>
+      <c r="I53">
+        <v>800</v>
+      </c>
+      <c r="J53">
+        <v>4.5445000000000002</v>
+      </c>
+      <c r="K53">
+        <v>800</v>
+      </c>
+      <c r="L53">
+        <v>3.7191062000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>850</v>
+      </c>
+      <c r="B54">
+        <v>4.1789050999999997</v>
+      </c>
+      <c r="C54">
+        <v>850</v>
+      </c>
+      <c r="D54">
+        <v>1.0452431</v>
+      </c>
+      <c r="E54">
+        <v>850</v>
+      </c>
+      <c r="F54">
+        <v>4.3489636000000003</v>
+      </c>
+      <c r="G54">
+        <v>850</v>
+      </c>
+      <c r="H54">
+        <v>1.1138356</v>
+      </c>
+      <c r="I54">
+        <v>850</v>
+      </c>
+      <c r="J54">
+        <v>4.5082896999999997</v>
+      </c>
+      <c r="K54">
+        <v>850</v>
+      </c>
+      <c r="L54">
+        <v>3.6879211999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>900</v>
+      </c>
+      <c r="B55">
+        <v>5.6140504</v>
+      </c>
+      <c r="C55">
+        <v>900</v>
+      </c>
+      <c r="D55">
+        <v>1.2361721999999999</v>
+      </c>
+      <c r="E55">
+        <v>900</v>
+      </c>
+      <c r="F55">
+        <v>4.8686322000000004</v>
+      </c>
+      <c r="G55">
+        <v>900</v>
+      </c>
+      <c r="H55">
+        <v>1.1913558</v>
+      </c>
+      <c r="I55">
+        <v>900</v>
+      </c>
+      <c r="J55">
+        <v>4.5781834000000003</v>
+      </c>
+      <c r="K55">
+        <v>900</v>
+      </c>
+      <c r="L55">
+        <v>3.7300122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>950</v>
+      </c>
+      <c r="B56">
+        <v>7.1847167000000001</v>
+      </c>
+      <c r="C56">
+        <v>950</v>
+      </c>
+      <c r="D56">
+        <v>1.4592168999999999</v>
+      </c>
+      <c r="E56">
+        <v>950</v>
+      </c>
+      <c r="F56">
+        <v>5.5258171999999997</v>
+      </c>
+      <c r="G56">
+        <v>950</v>
+      </c>
+      <c r="H56">
+        <v>1.4919538999999999</v>
+      </c>
+      <c r="I56">
+        <v>950</v>
+      </c>
+      <c r="J56">
+        <v>4.5557559999999997</v>
+      </c>
+      <c r="K56">
+        <v>950</v>
+      </c>
+      <c r="L56">
+        <v>3.6915629999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1000</v>
+      </c>
+      <c r="B57">
+        <v>8.8863780999999999</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57">
+        <v>1.8196952</v>
+      </c>
+      <c r="E57">
+        <v>1000</v>
+      </c>
+      <c r="F57">
+        <v>6.7446805000000003</v>
+      </c>
+      <c r="G57">
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>1.6329553000000001</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+      <c r="J57">
+        <v>4.531288</v>
+      </c>
+      <c r="K57">
+        <v>1000</v>
+      </c>
+      <c r="L57">
+        <v>3.7250200000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1500</v>
+      </c>
+      <c r="B58">
+        <v>28.8671036</v>
+      </c>
+      <c r="C58">
+        <v>1500</v>
+      </c>
+      <c r="D58">
+        <v>7.1579084000000002</v>
+      </c>
+      <c r="E58">
+        <v>1500</v>
+      </c>
+      <c r="F58">
+        <v>22.290632500000001</v>
+      </c>
+      <c r="G58">
+        <v>1500</v>
+      </c>
+      <c r="H58">
+        <v>5.8539463999999999</v>
+      </c>
+      <c r="I58">
+        <v>1500</v>
+      </c>
+      <c r="J58">
+        <v>32.046273999999997</v>
+      </c>
+      <c r="K58">
+        <v>1500</v>
+      </c>
+      <c r="L58">
+        <v>28.798579400000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2000</v>
+      </c>
+      <c r="B59">
+        <v>78.534017399999996</v>
+      </c>
+      <c r="C59">
+        <v>2000</v>
+      </c>
+      <c r="D59">
+        <v>13.7167265</v>
+      </c>
+      <c r="E59">
+        <v>2000</v>
+      </c>
+      <c r="F59">
+        <v>52.971342700000001</v>
+      </c>
+      <c r="G59">
+        <v>2000</v>
+      </c>
+      <c r="H59">
+        <v>11.478516600000001</v>
+      </c>
+      <c r="I59">
+        <v>2000</v>
+      </c>
+      <c r="J59">
+        <v>28.417389700000001</v>
+      </c>
+      <c r="K59">
+        <v>2000</v>
+      </c>
+      <c r="L59">
+        <v>26.148240099999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/extra/matrix_research.xlsx
+++ b/extra/matrix_research.xlsx
@@ -133,7 +133,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2550,7 +2549,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2668,7 +2666,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2749,7 +2746,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5110,178 +5106,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>2.4621999999999999E-3</c:v>
+                  <c:v>1.45828E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2203000000000001E-3</c:v>
+                  <c:v>1.15455E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.48133E-2</c:v>
+                  <c:v>1.3803899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.49011E-2</c:v>
+                  <c:v>8.6350999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5871699999999999E-2</c:v>
+                  <c:v>6.7403000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7555100000000001E-2</c:v>
+                  <c:v>9.8837000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4917E-2</c:v>
+                  <c:v>6.2765E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4894299999999999E-2</c:v>
+                  <c:v>6.7472000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1075231</c:v>
+                  <c:v>4.3299200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.129969</c:v>
+                  <c:v>4.2747599999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1021002</c:v>
+                  <c:v>4.7328700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1019161</c:v>
+                  <c:v>4.21816E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10618619999999999</c:v>
+                  <c:v>4.1298799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10291939999999999</c:v>
+                  <c:v>4.4324200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1049479</c:v>
+                  <c:v>4.2392100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1015451</c:v>
+                  <c:v>3.9122200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1018601</c:v>
+                  <c:v>4.4767399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12646160000000001</c:v>
+                  <c:v>4.1019699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1044553</c:v>
+                  <c:v>4.4829099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1028912</c:v>
+                  <c:v>4.2815199999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1055802</c:v>
+                  <c:v>5.0703400000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78406549999999997</c:v>
+                  <c:v>0.26157849999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73608320000000005</c:v>
+                  <c:v>0.27017780000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1151234999999999</c:v>
+                  <c:v>0.24449509999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.74287190000000003</c:v>
+                  <c:v>0.2462799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.71699979999999996</c:v>
+                  <c:v>0.23603579999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74130799999999997</c:v>
+                  <c:v>0.237456</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.73649160000000002</c:v>
+                  <c:v>0.2363545</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7801979</c:v>
+                  <c:v>0.24438560000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.70909659999999997</c:v>
+                  <c:v>0.23093050000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.74341619999999997</c:v>
+                  <c:v>0.25360070000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.79338980000000003</c:v>
+                  <c:v>0.23753260000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.74415989999999999</c:v>
+                  <c:v>0.23858480000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.71995390000000004</c:v>
+                  <c:v>0.2430408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.86354189999999997</c:v>
+                  <c:v>0.24434610000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.78588159999999996</c:v>
+                  <c:v>0.2613935</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.68639110000000003</c:v>
+                  <c:v>0.2540463</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.68950409999999995</c:v>
+                  <c:v>0.24503659999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.53063190000000005</c:v>
+                  <c:v>0.25132199999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.74353760000000002</c:v>
+                  <c:v>0.24747060000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.56802050000000004</c:v>
+                  <c:v>0.25215029999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5043588</c:v>
+                  <c:v>0.2351482</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.55801869999999998</c:v>
+                  <c:v>0.2538455</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.62313680000000005</c:v>
+                  <c:v>0.23931530000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.60564150000000005</c:v>
+                  <c:v>0.25473709999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.64414629999999995</c:v>
+                  <c:v>0.27397129999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.8534006000000001</c:v>
+                  <c:v>1.4677259</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.7591366000000002</c:v>
+                  <c:v>1.4800784</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6793673</c:v>
+                  <c:v>1.7362017999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7071765999999999</c:v>
+                  <c:v>1.6290739000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.6817426000000002</c:v>
+                  <c:v>1.7954355</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.7191062000000001</c:v>
+                  <c:v>1.7284619000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.6879211999999999</c:v>
+                  <c:v>1.6511502</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7300122</c:v>
+                  <c:v>1.5229321</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.6915629999999999</c:v>
+                  <c:v>1.4862721999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.7250200000000002</c:v>
+                  <c:v>1.7750712</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>28.798579400000001</c:v>
+                  <c:v>8.1366818999999992</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.148240099999999</c:v>
+                  <c:v>7.6488635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8318,7 +8314,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="K2" sqref="K2:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8381,7 +8377,7 @@
         <v>50</v>
       </c>
       <c r="L2">
-        <v>2.4621999999999999E-3</v>
+        <v>1.45828E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -8419,7 +8415,7 @@
         <v>60</v>
       </c>
       <c r="L3">
-        <v>2.2203000000000001E-3</v>
+        <v>1.15455E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -8457,7 +8453,7 @@
         <v>70</v>
       </c>
       <c r="L4">
-        <v>1.48133E-2</v>
+        <v>1.3803899999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -8495,7 +8491,7 @@
         <v>80</v>
       </c>
       <c r="L5">
-        <v>1.49011E-2</v>
+        <v>8.6350999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -8533,7 +8529,7 @@
         <v>90</v>
       </c>
       <c r="L6">
-        <v>1.5871699999999999E-2</v>
+        <v>6.7403000000000003E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -8571,7 +8567,7 @@
         <v>100</v>
       </c>
       <c r="L7">
-        <v>3.7555100000000001E-2</v>
+        <v>9.8837000000000005E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -8609,7 +8605,7 @@
         <v>110</v>
       </c>
       <c r="L8">
-        <v>1.4917E-2</v>
+        <v>6.2765E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -8647,7 +8643,7 @@
         <v>120</v>
       </c>
       <c r="L9">
-        <v>1.4894299999999999E-2</v>
+        <v>6.7472000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -8685,7 +8681,7 @@
         <v>130</v>
       </c>
       <c r="L10">
-        <v>0.1075231</v>
+        <v>4.3299200000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -8723,7 +8719,7 @@
         <v>140</v>
       </c>
       <c r="L11">
-        <v>0.129969</v>
+        <v>4.2747599999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -8761,7 +8757,7 @@
         <v>150</v>
       </c>
       <c r="L12">
-        <v>0.1021002</v>
+        <v>4.7328700000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -8799,7 +8795,7 @@
         <v>160</v>
       </c>
       <c r="L13">
-        <v>0.1019161</v>
+        <v>4.21816E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -8837,7 +8833,7 @@
         <v>170</v>
       </c>
       <c r="L14">
-        <v>0.10618619999999999</v>
+        <v>4.1298799999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -8875,7 +8871,7 @@
         <v>180</v>
       </c>
       <c r="L15">
-        <v>0.10291939999999999</v>
+        <v>4.4324200000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -8913,7 +8909,7 @@
         <v>190</v>
       </c>
       <c r="L16">
-        <v>0.1049479</v>
+        <v>4.2392100000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -8951,7 +8947,7 @@
         <v>200</v>
       </c>
       <c r="L17">
-        <v>0.1015451</v>
+        <v>3.9122200000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -8989,7 +8985,7 @@
         <v>210</v>
       </c>
       <c r="L18">
-        <v>0.1018601</v>
+        <v>4.4767399999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9027,7 +9023,7 @@
         <v>220</v>
       </c>
       <c r="L19">
-        <v>0.12646160000000001</v>
+        <v>4.1019699999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -9065,7 +9061,7 @@
         <v>230</v>
       </c>
       <c r="L20">
-        <v>0.1044553</v>
+        <v>4.4829099999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -9103,7 +9099,7 @@
         <v>240</v>
       </c>
       <c r="L21">
-        <v>0.1028912</v>
+        <v>4.2815199999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -9141,7 +9137,7 @@
         <v>250</v>
       </c>
       <c r="L22">
-        <v>0.1055802</v>
+        <v>5.0703400000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -9179,7 +9175,7 @@
         <v>260</v>
       </c>
       <c r="L23">
-        <v>0.78406549999999997</v>
+        <v>0.26157849999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -9217,7 +9213,7 @@
         <v>270</v>
       </c>
       <c r="L24">
-        <v>0.73608320000000005</v>
+        <v>0.27017780000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -9255,7 +9251,7 @@
         <v>280</v>
       </c>
       <c r="L25">
-        <v>1.1151234999999999</v>
+        <v>0.24449509999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -9293,7 +9289,7 @@
         <v>290</v>
       </c>
       <c r="L26">
-        <v>0.74287190000000003</v>
+        <v>0.2462799</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -9331,7 +9327,7 @@
         <v>300</v>
       </c>
       <c r="L27">
-        <v>0.71699979999999996</v>
+        <v>0.23603579999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -9369,7 +9365,7 @@
         <v>310</v>
       </c>
       <c r="L28">
-        <v>0.74130799999999997</v>
+        <v>0.237456</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -9407,7 +9403,7 @@
         <v>320</v>
       </c>
       <c r="L29">
-        <v>0.73649160000000002</v>
+        <v>0.2363545</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -9445,7 +9441,7 @@
         <v>330</v>
       </c>
       <c r="L30">
-        <v>0.7801979</v>
+        <v>0.24438560000000001</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -9483,7 +9479,7 @@
         <v>340</v>
       </c>
       <c r="L31">
-        <v>0.70909659999999997</v>
+        <v>0.23093050000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -9521,7 +9517,7 @@
         <v>350</v>
       </c>
       <c r="L32">
-        <v>0.74341619999999997</v>
+        <v>0.25360070000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -9559,7 +9555,7 @@
         <v>360</v>
       </c>
       <c r="L33">
-        <v>0.79338980000000003</v>
+        <v>0.23753260000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -9597,7 +9593,7 @@
         <v>370</v>
       </c>
       <c r="L34">
-        <v>0.74415989999999999</v>
+        <v>0.23858480000000001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9635,7 +9631,7 @@
         <v>380</v>
       </c>
       <c r="L35">
-        <v>0.71995390000000004</v>
+        <v>0.2430408</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -9673,7 +9669,7 @@
         <v>390</v>
       </c>
       <c r="L36">
-        <v>0.86354189999999997</v>
+        <v>0.24434610000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -9711,7 +9707,7 @@
         <v>400</v>
       </c>
       <c r="L37">
-        <v>0.78588159999999996</v>
+        <v>0.2613935</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -9749,7 +9745,7 @@
         <v>410</v>
       </c>
       <c r="L38">
-        <v>0.68639110000000003</v>
+        <v>0.2540463</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9787,7 +9783,7 @@
         <v>420</v>
       </c>
       <c r="L39">
-        <v>0.68950409999999995</v>
+        <v>0.24503659999999999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9825,7 +9821,7 @@
         <v>430</v>
       </c>
       <c r="L40">
-        <v>0.53063190000000005</v>
+        <v>0.25132199999999999</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9863,7 +9859,7 @@
         <v>440</v>
       </c>
       <c r="L41">
-        <v>0.74353760000000002</v>
+        <v>0.24747060000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9901,7 +9897,7 @@
         <v>450</v>
       </c>
       <c r="L42">
-        <v>0.56802050000000004</v>
+        <v>0.25215029999999999</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -9939,7 +9935,7 @@
         <v>460</v>
       </c>
       <c r="L43">
-        <v>0.5043588</v>
+        <v>0.2351482</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9977,7 +9973,7 @@
         <v>470</v>
       </c>
       <c r="L44">
-        <v>0.55801869999999998</v>
+        <v>0.2538455</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -10015,7 +10011,7 @@
         <v>480</v>
       </c>
       <c r="L45">
-        <v>0.62313680000000005</v>
+        <v>0.23931530000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -10053,7 +10049,7 @@
         <v>490</v>
       </c>
       <c r="L46">
-        <v>0.60564150000000005</v>
+        <v>0.25473709999999999</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -10091,7 +10087,7 @@
         <v>500</v>
       </c>
       <c r="L47">
-        <v>0.64414629999999995</v>
+        <v>0.27397129999999997</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -10129,7 +10125,7 @@
         <v>550</v>
       </c>
       <c r="L48">
-        <v>3.8534006000000001</v>
+        <v>1.4677259</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -10167,7 +10163,7 @@
         <v>600</v>
       </c>
       <c r="L49">
-        <v>3.7591366000000002</v>
+        <v>1.4800784</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -10205,7 +10201,7 @@
         <v>650</v>
       </c>
       <c r="L50">
-        <v>3.6793673</v>
+        <v>1.7362017999999999</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -10243,7 +10239,7 @@
         <v>700</v>
       </c>
       <c r="L51">
-        <v>3.7071765999999999</v>
+        <v>1.6290739000000001</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -10281,7 +10277,7 @@
         <v>750</v>
       </c>
       <c r="L52">
-        <v>3.6817426000000002</v>
+        <v>1.7954355</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -10319,7 +10315,7 @@
         <v>800</v>
       </c>
       <c r="L53">
-        <v>3.7191062000000001</v>
+        <v>1.7284619000000001</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -10357,7 +10353,7 @@
         <v>850</v>
       </c>
       <c r="L54">
-        <v>3.6879211999999999</v>
+        <v>1.6511502</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -10395,7 +10391,7 @@
         <v>900</v>
       </c>
       <c r="L55">
-        <v>3.7300122</v>
+        <v>1.5229321</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -10433,7 +10429,7 @@
         <v>950</v>
       </c>
       <c r="L56">
-        <v>3.6915629999999999</v>
+        <v>1.4862721999999999</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -10471,7 +10467,7 @@
         <v>1000</v>
       </c>
       <c r="L57">
-        <v>3.7250200000000002</v>
+        <v>1.7750712</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -10509,7 +10505,7 @@
         <v>1500</v>
       </c>
       <c r="L58">
-        <v>28.798579400000001</v>
+        <v>8.1366818999999992</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -10547,7 +10543,7 @@
         <v>2000</v>
       </c>
       <c r="L59">
-        <v>26.148240099999999</v>
+        <v>7.6488635</v>
       </c>
     </row>
   </sheetData>

--- a/extra/matrix_research.xlsx
+++ b/extra/matrix_research.xlsx
@@ -8313,8 +8313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
